--- a/data/summary_22072010.xlsx
+++ b/data/summary_22072010.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,40 +360,45 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Ponto</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Tair_m</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Presurre_m</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Taxa_Linear</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Taxa_quad</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>FCO2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>FO2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Ts</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Ms</t>
         </is>
@@ -401,1482 +406,1656 @@
     </row>
     <row r="2">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>21.3707182320442</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>989.4436464088398</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.4794603305785124</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.5109057851239669</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2.90232067596932</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>-4.565499671249994e-005</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>21.57624309392265</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>20.6767955801105</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>989.5530386740331</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.4793264462809918</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.4906421487603306</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2.909500144684133</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>-0.0001322790025169805</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>21.23149171270718</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.65414364640884</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>20.43038674033149</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>989.5983425414365</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.4310363636363637</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.4464123966942149</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2.548067129242076</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2.547492676453545e-017</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>20.9</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1.034254143646409</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>20.02817679558011</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>989.7729281767955</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.3741727272727273</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.3855198347107438</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2.33327062892773</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>9.005075840803604e-018</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>20.32762430939227</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1.005524861878453</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>19.60939226519337</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>989.7872928176795</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.3096528925619835</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.3191652892561984</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>1.82550307259692</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>9.018090221048597e-018</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>19.91657458563536</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>19.37845303867403</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>989.8381215469613</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.3727760330578512</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.3779297520661157</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.192446549527845</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.0001282271903429589</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>19.7</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1.419337016574586</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>19.13425414364641</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>989.9138121546961</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.3704289256198347</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.4201793388429752</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2.121298801527594</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-4.516953460630976e-018</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>19.5</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>2.142541436464089</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>19.07624309392265</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>989.9994475138121</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.4257314049586777</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.4238702479338843</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>2.634087315974317</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-4.518241107706368e-018</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>19.31325966850829</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>2.369613259668508</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>19.12154696132597</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>989.9994475138121</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.3640710743801653</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.4034900826446281</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2.194732338969926</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>2.331677704435069e-005</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>19.3</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1.137016574585635</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>19.03480662983425</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>990.0027624309392</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.2061958677685951</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.2124768595041322</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1.317234942331148</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.0001404402783002182</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>19.11436464088398</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1.052486187845304</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>19.15745856353591</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>990.0729281767956</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.2195636363636364</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.247604132231405</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1.24362108542562</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.0001405651603668876</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>19.1</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1.247513812154696</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>20.16850828729282</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>990.2005524861879</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.4141090909090909</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.5029314049586777</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>2.187338764182611</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>6.210799010196454e-006</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>19.3</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.3535911602209945</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>20.08011049723757</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>990.2917127071822</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.2594867768595041</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.2767479338842975</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1.604679951559485</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>3.071332413757804e-006</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>19.34972375690608</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>20.0524861878453</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>990.1795580110497</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.6224917355371901</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.630296694214876</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>3.719869205713466</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.0001362826474097875</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>19.58839779005525</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>4.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
         <v>20.17790055248619</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>990.186187845304</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.4442057851239669</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.4791950413223141</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2.697592250907817</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.0001375090186940226</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>19.86243093922652</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1.204419889502763</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
         <v>20.4232044198895</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>990.2193370165746</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.4872231404958678</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.5463933884297521</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>2.768276664400632</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>2.999004302381768e-018</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>20.08563535911602</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>3.903314917127072</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
         <v>20.58453038674033</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>990.2994475138121</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.4292438016528926</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.4405314049586777</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>2.62134882932141</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.0001264722425761214</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>20.1</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
         <v>20.94309392265193</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>990.2994475138121</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.4294710743801653</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.5027082644628099</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>2.399971936298587</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.000141765094771744</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>20.3</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
         <v>21.21049723756906</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>990.3287292817679</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.4540256198347107</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.4791371900826446</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>2.688511422167719</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>1.495656199751665e-018</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>20.32099447513812</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
         <v>28.7292817679558</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>990.6541436464089</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.3099330578512397</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.3287785123966942</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>1.842752025467745</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.0001150328900376881</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>23.7</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>1.80939226519337</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
         <v>30.08121546961326</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>990.8022099447513</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.4078553719008264</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.4368347107438017</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>2.328792715865711</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>8.435046348863798e-005</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>23.63922651933702</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>5.656906077348066</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
         <v>29.81436464088398</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>990.8309392265193</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.3908272727272728</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.418400826446281</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>2.260278803665972</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.0002283636143101756</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>23.8828729281768</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>4.191160220994475</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
         <v>30.79723756906077</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>990.9011049723757</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.4086165289256198</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.4174380165289257</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>2.464356217413892</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.0003014551415423921</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>24.54088397790055</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>3.660220994475138</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
         <v>33.27569060773481</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>990.9309392265193</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.3304528925619835</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.2887685950413223</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>2.095275153755044</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.0004050747730879659</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>24.21933701657459</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>11.76298342541437</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
         <v>34.08011049723757</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>990.9707182320442</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.2727611570247934</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.2690942148760331</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>1.671896248243027</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.0002231956858242099</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>23.60497237569061</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>11.87348066298343</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
         <v>34.24309392265194</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>991.0966850828729</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>0.4129859504132232</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.3936570247933884</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>2.646101129731997</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>-0.0001166052289308261</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>24.2182320441989</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>0.8845303867403315</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
         <v>33.68563535911602</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>991.1386740331492</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>0.3527603305785124</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>0.3575066115702479</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>2.16267683969932</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-0.0001308532463691611</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>25.77955801104972</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>4.68232044198895</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
         <v>32.93756906077348</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>991.1005524861879</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>0.4449148760330579</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>0.4433082644628099</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>2.727334847520097</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>0.0001357477112122158</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>27.08176795580111</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>1.149171270718232</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
         <v>34.44861878453039</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>991.0944751381215</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0.3186702479338843</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>0.2990851239669422</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>1.948450997591385</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.0001033880761214169</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>28.45303867403315</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>1.9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
         <v>36.28232044198895</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>991.0132596685083</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>0.4047107438016529</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>0.4369561983471074</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>2.21341728146504</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.0002541725705858502</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>29.54640883977901</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>3.313259668508287</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
         <v>36.67292817679558</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>990.9591160220995</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>0.3127553719008264</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>0.3393537190082644</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>1.865113254645043</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>0.0001913448250146833</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>29.81657458563536</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>2.699447513812155</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
         <v>37.6646408839779</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>990.9646408839778</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.3348115702479339</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.3234198347107438</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>2.065744167942095</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>-3.732630049140877e-005</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>30.28232044198895</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>0.8883977900552487</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
         <v>39.09944751381215</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>990.9850828729282</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.3324090909090909</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>0.3328553719008264</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>1.987746800218561</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.0002414649766480073</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>31.28674033149171</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.9961325966850829</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
         <v>38.96906077348066</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>991.0469613259669</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>0.3351727272727273</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>0.3140371900826446</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>2.194429510436269</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0.0002187306177521836</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>32.4646408839779</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>0.9895027624309393</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
         <v>37.58066298342541</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>991.0254143646409</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>0.3526818181818182</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>0.3560826446280992</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>2.135310427385421</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>-4.926091313063969e-006</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>32.58563535911603</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>3.502762430939227</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
         <v>36.5767955801105</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>991.0038674033149</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>0.3374719008264463</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>0.3235438016528925</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>2.142188040674097</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>2.133616985233037e-017</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>32.20276243093922</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>2.875690607734807</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
         <v>37.9585635359116</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>990.9629834254143</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>0.3249826446280992</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>0.2497297520661157</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>2.063788144040975</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>8.769187723078638e-005</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>32.4232044198895</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
         <v>33.78674033149171</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>991.4016574585635</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>0.4813438016528925</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>0.4191760330578512</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>3.208926983182762</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>-3.552582664886682e-005</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>31.2878453038674</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>2.36353591160221</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
         <v>32.39337016574586</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>991.3569060773481</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>0.4396173553719008</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>0.4215305785123967</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>2.802975946070231</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>-0.0001025525502508027</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>30.17127071823204</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>2.359668508287293</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
         <v>30.04475138121547</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>991.3160220994474</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>0.4221272727272727</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>0.415803305785124</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>2.612739016916901</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>1.453518076374935e-018</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>28.61988950276243</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>4.270718232044199</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
         <v>28.70939226519337</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>991.3828729281768</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>0.3062289256198347</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>0.2575586776859504</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>2.057024798904914</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>7.684157841307124e-005</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>27.57127071823204</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>5.827624309392265</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
         <v>27.94585635359116</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>991.3436464088397</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>0.4180123966942149</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>0.4473867768595041</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>2.488816352904971</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>0.0001334096746460925</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>26.82541436464088</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>2.09060773480663</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
         <v>27.22044198895028</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>991.2988950276242</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>0.4728636363636364</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>0.4782190082644628</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>2.922383227296538</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>-8.802971090740002e-018</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>26.27734806629834</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>3.142541436464089</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
         <v>26.66574585635359</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>991.2651933701658</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>0.3389438016528926</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>0.3475471074380165</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>1.999400210783055</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>8.343802704796039e-005</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>25.59668508287293</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>2.67182320441989</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
         <v>26.30939226519337</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>991.2209944751381</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>0.3902479338842975</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>0.3859909090909091</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>2.430625286827005</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>6.892743113449032e-005</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>25.05414364640884</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>3.380662983425415</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
         <v>26.30909090909091</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>991.2000000000001</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>3.719914797813066e-017</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>24.7</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>7.3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
         <v>26.22154696132597</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>991.1707182320442</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>0.399297520661157</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>0.4173900826446281</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>2.359709207668159</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>0.0001156659701662483</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>24.2414364640884</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>7.488950276243094</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
         <v>26.1</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>991.0220994475138</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>0.4465826446280992</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>0.4170123966942149</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>2.860986874159115</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>6.447851223702931e-005</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>23.9</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>2.314364640883978</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
         <v>26.15414364640884</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>991.0248618784531</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>0.5716380165289257</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>0.5850495867768595</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>3.504084374102698</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>0.0001397730885704768</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>23.9</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>5.579558011049723</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
         <v>26.25027624309392</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>990.9751381215469</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>0.4576586776859504</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>0.424103305785124</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>2.859414651007175</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>8.154551291676968e-005</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>23.66574585635359</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>5.683425414364641</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
         <v>26.74475138121547</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>990.7574585635359</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>0.5930388429752066</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>0.4869702479338843</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>3.995698752604865</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>0.0001339673022476461</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>23.61491712707182</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>12.26961325966851</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
         <v>27.07348066298343</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>990.7116022099448</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>0.4624876033057851</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>0.3568520661157025</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>3.278433755600547</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>0.0002064817613484342</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>23.78729281767956</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>11.65193370165746</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
         <v>27.24972375690608</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>990.6044198895028</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>0.5457396694214877</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>0.5195256198347108</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>3.4185963931232</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>0.0001496691931304</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>24.2</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>7.369060773480663</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
         <v>28.37458563535911</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>990.5016574585635</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>0.4158479338842975</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>0.3520809917355372</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>2.837902819407325</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>0.0002172915440329632</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>25.19171270718232</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>6.276243093922652</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
         <v>29.79166666666667</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>990.4716666666667</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>0.0001717920695437884</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>25.9</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>7.9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
         <v>30.1725</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>990.4025</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>2.756674358639877e-017</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>25.9</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>7.9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
         <v>30.70497237569061</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>990.3232044198894</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>0.3803851239669421</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>0.3254776859504132</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>2.53405771109314</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>0.000222863954104555</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>26.13204419889503</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>7.833149171270718</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
         <v>31.09889502762431</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>990.2988950276242</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>0.4080570247933885</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>0.3699314049586777</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>2.671308197048183</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>0.0001978741060453011</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>26.2</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>7.519337016574585</v>
       </c>
     </row>
